--- a/ejercicio5.xlsx
+++ b/ejercicio5.xlsx
@@ -440,13 +440,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sheyla</t>
+          <t>skarlet</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -456,11 +456,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mariana</t>
+          <t>Emanuel</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
